--- a/release-notes/2024-02/closed-bugs-sle-2024-02.xlsx
+++ b/release-notes/2024-02/closed-bugs-sle-2024-02.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markblack/repos/github/install-systemlink-enterprise/release-notes/2024-02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nio365.sharepoint.com/sites/IoTProgram/Shared Documents/ProjectDocuments/SystemLink 2024/2024 Q2 (v.24.3)(releasing out of Cycle 24.C1)/Common docs/Release notes/SLE 2024-02 Release Notes - January iteration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4370EB1E-3F34-B348-B91D-E38AED460BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{0357FC32-4DB0-FA47-B55E-60093BEFF741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D95A564-541B-4FD2-AF98-0DA005EDEC3B}"/>
   <bookViews>
-    <workbookView xWindow="15200" yWindow="7360" windowWidth="28040" windowHeight="17440" xr2:uid="{57D77789-F648-2D4D-A3A6-FF59F5493EF0}"/>
+    <workbookView xWindow="28500" yWindow="-21600" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="closed bugs in last iteration" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -51,13 +51,49 @@
   </si>
   <si>
     <t>Update documentation with procedure to install admin Helm chart when Argo CRDs are already present.</t>
+  </si>
+  <si>
+    <t>Clicking on 'Assets' header removes the filter from the view</t>
+  </si>
+  <si>
+    <t>Rows in asset grid does not have links</t>
+  </si>
+  <si>
+    <t>Tag application name in the nav is localized incorrectly in Chinese</t>
+  </si>
+  <si>
+    <t>Jupyter doesn't respect dark mode when coming from light to device default</t>
+  </si>
+  <si>
+    <t>Systems Management OpenAPI documentation lacks example values</t>
+  </si>
+  <si>
+    <t>Error message doesn't disappear from add feed dialog when creating the job fails</t>
+  </si>
+  <si>
+    <t>Package grid apostrophe not encoded correctly</t>
+  </si>
+  <si>
+    <t>SpecDetailsPage -  Breadcrumb shows Error instead of spec id and spec name</t>
+  </si>
+  <si>
+    <t>Data Spaces - Visualization isn't shown when the group by x selections are valid and x-axis selection is invalid</t>
+  </si>
+  <si>
+    <t>Test plan details - Assigned To field Value and Validation not updated as expected when edited using edit slideout</t>
+  </si>
+  <si>
+    <t>Entire test plans shown under the newly created workorder</t>
+  </si>
+  <si>
+    <t>Assigned To Validity not updated in the workorder details page when edited using edit slideout</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,16 +101,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -82,15 +418,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -401,19 +926,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105036EA-B18B-1140-BE6E-EF58978AB56C}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="2" max="2" width="92" customWidth="1"/>
+    <col min="2" max="2" width="87.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2">
         <v>2622606</v>
       </c>
@@ -435,10 +960,455 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3">
+        <v>2620451</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4">
+        <v>2624794</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5">
+        <v>2626442</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6">
+        <v>2634853</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A7">
+        <v>2622166</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A8">
+        <v>2618722</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A9">
+        <v>2618998</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A10">
+        <v>2627634</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A11">
+        <v>2635085</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A12">
+        <v>2621294</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A13">
+        <v>2504149</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A14">
+        <v>2625332</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 INTERNAL - NI CONFIDENTIAL</oddFooter>
+    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 INTERNAL - NI CONFIDENTIAL</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CC68938C25E75A48B38E3943F7278D4C" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f386436e95be0043924bcf0cd6e2e3e1">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9" xmlns:ns3="8f35f8fb-94b8-4296-88b5-253c68a5f93d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5eec6196c8d92b4beb5d11b9b1aa531" ns2:_="" ns3:_="">
+    <xsd:import namespace="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9"/>
+    <xsd:import namespace="8f35f8fb-94b8-4296-88b5-253c68a5f93d"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="15" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="15d34d70-d8b5-4d24-889f-c4982dcd5948" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8f35f8fb-94b8-4296-88b5-253c68a5f93d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{19fd56db-b7df-4577-bbf3-1b70e21ccebf}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="8f35f8fb-94b8-4296-88b5-253c68a5f93d">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="8f35f8fb-94b8-4296-88b5-253c68a5f93d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69CD8DA2-193C-44CF-BA17-F8ECBA32973C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9"/>
+    <ds:schemaRef ds:uri="8f35f8fb-94b8-4296-88b5-253c68a5f93d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F5BA7BF-C649-45A8-BA98-72C6A48D6AFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E6B2099-BF96-40FC-B6D0-611F0B5B8DEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8f35f8fb-94b8-4296-88b5-253c68a5f93d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>